--- a/INTLINE/data/132/MEASTF/Housing started by type and by municipality_historical.xlsx
+++ b/INTLINE/data/132/MEASTF/Housing started by type and by municipality_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SL5"/>
+  <dimension ref="A1:SM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2892,6 +2892,11 @@
           <t>2022-01</t>
         </is>
       </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4386,6 +4391,9 @@
       <c r="SL2" t="n">
         <v>13578</v>
       </c>
+      <c r="SM2" t="n">
+        <v>11411</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5848,6 +5856,9 @@
       <c r="SL3" t="n">
         <v>4210</v>
       </c>
+      <c r="SM3" t="n">
+        <v>2423</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -7370,6 +7381,9 @@
       <c r="SL4" t="n">
         <v>29949</v>
       </c>
+      <c r="SM4" t="n">
+        <v>25339</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -8889,6 +8903,9 @@
       </c>
       <c r="SL5" t="n">
         <v>12161</v>
+      </c>
+      <c r="SM5" t="n">
+        <v>11505</v>
       </c>
     </row>
   </sheetData>
